--- a/pusat klaster kmodes dan kmedoids.xlsx
+++ b/pusat klaster kmodes dan kmedoids.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alharidt\Documents\GitHub\TA_Alharidt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2675491-05CB-4297-8525-92A91F70956F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8401137B-EBF7-44B7-A365-283B0F0F9849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>X1</t>
   </si>
@@ -60,6 +73,12 @@
   </si>
   <si>
     <t>Kmedoids</t>
+  </si>
+  <si>
+    <t>kmodes</t>
+  </si>
+  <si>
+    <t>kmedoids</t>
   </si>
 </sst>
 </file>
@@ -414,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -857,14 +876,351 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADB7DEF-1CAA-4B41-8524-B0447B541289}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3898</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3">
+        <v>118</v>
+      </c>
+      <c r="E3">
+        <v>58</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B3:F3)</f>
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>9371</v>
+      </c>
+      <c r="D4">
+        <v>1130</v>
+      </c>
+      <c r="E4">
+        <v>1249</v>
+      </c>
+      <c r="F4">
+        <v>2041</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" si="0">SUM(B4:F4)</f>
+        <v>13891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>412</v>
+      </c>
+      <c r="C5">
+        <v>391</v>
+      </c>
+      <c r="D5">
+        <v>11684</v>
+      </c>
+      <c r="E5">
+        <v>387</v>
+      </c>
+      <c r="F5">
+        <v>498</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>13372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>315</v>
+      </c>
+      <c r="C6">
+        <v>748</v>
+      </c>
+      <c r="D6">
+        <v>384</v>
+      </c>
+      <c r="E6">
+        <v>8413</v>
+      </c>
+      <c r="F6">
+        <v>2123</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>11983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>189</v>
+      </c>
+      <c r="D7">
+        <v>184</v>
+      </c>
+      <c r="E7">
+        <v>1430</v>
+      </c>
+      <c r="F7">
+        <v>15411</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>17237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>SUM(B3:B7)</f>
+        <v>4748</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:F8" si="1">SUM(C3:C7)</f>
+        <v>10822</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>11537</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>20137</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>60744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11092</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>104</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>SUM(B12:F12)</f>
+        <v>11214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>831</v>
+      </c>
+      <c r="C13">
+        <v>13020</v>
+      </c>
+      <c r="D13">
+        <v>760</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G17" si="2">SUM(B13:F13)</f>
+        <v>14611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>899</v>
+      </c>
+      <c r="D14">
+        <v>5436</v>
+      </c>
+      <c r="E14">
+        <v>4654</v>
+      </c>
+      <c r="F14">
+        <v>6179</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>17258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>219</v>
+      </c>
+      <c r="D15">
+        <v>39</v>
+      </c>
+      <c r="E15">
+        <v>9870</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>10139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>7493</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>SUM(B12:B16)</f>
+        <v>12030</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:F17" si="3">SUM(C12:C16)</f>
+        <v>14167</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>6351</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>14524</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>13672</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>60744</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>